--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceForPpt.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceForPpt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="360" windowWidth="14940" windowHeight="8985"/>
@@ -78,15 +78,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,19 +314,19 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,8 +335,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -800,20 +800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="2:16" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
@@ -858,16 +858,16 @@
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -892,7 +892,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="25"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="35"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="10"/>
       <c r="I6" s="25"/>
       <c r="J6" s="10"/>

--- a/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceForPpt.xlsx
+++ b/Merck Sereno Dashboard/Dashboard/Content/ExportTemplate/AtAGlanceForPpt.xlsx
@@ -33,7 +33,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0,"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,13 +78,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial"/>
@@ -100,30 +93,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3F8"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,6 +175,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD60093"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
       <left style="thin">
         <color rgb="FFD60093"/>
       </left>
@@ -189,34 +208,31 @@
         <color rgb="FFD60093"/>
       </right>
       <top style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
         <color rgb="FFD60093"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFB0007A"/>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFB0007A"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="6">
@@ -229,7 +245,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,27 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,9 +279,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -293,50 +288,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -772,731 +794,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:P1"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="1.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="37" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20" style="11" customWidth="1"/>
+    <col min="11" max="11" width="20" style="7" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="20" style="19" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="13" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+    <row r="1" spans="2:16" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:16" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="2:16" s="18" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="2:16" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="23" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:16" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="21"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="22"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="31"/>
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="22"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="22"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="22"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="22"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="22"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="22"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="22"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="22"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="22"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="22"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="22"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="22"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="22"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="22"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="22"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="22"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="22"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="22"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="22"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="22"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="22"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="22"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="22"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="22"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="22"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="22"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="22"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="22"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="22"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="22"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="40" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="22"/>
-    </row>
-    <row r="41" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="17"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
+  <mergeCells count="8">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="C2:P2"/>
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F1048576">
+  <conditionalFormatting sqref="F4:F1048576">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1505,7 +1523,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H1048576">
+  <conditionalFormatting sqref="H4:H1048576">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1514,7 +1532,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J1048576">
+  <conditionalFormatting sqref="J4:J1048576">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1523,7 +1541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L1048576">
+  <conditionalFormatting sqref="L4:L1048576">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1532,15 +1550,15 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:P40">
+  <conditionalFormatting sqref="C4:P39">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>MATCH("*RECKITT*",$D5,0)&gt;-1</formula>
+      <formula>MATCH("*RECKITT*",$D4,0)&gt;-1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$C5=""</formula>
+      <formula>$C4=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N1048576">
+  <conditionalFormatting sqref="N4:N1048576">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -1549,7 +1567,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P1048576">
+  <conditionalFormatting sqref="P4:P1048576">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows" showValue="0">
         <cfvo type="percent" val="0"/>
